--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="커리큘럼" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0001579B"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFDE7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +52,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="0001579B"/>
+      </left>
+      <right style="thin">
+        <color rgb="0001579B"/>
+      </right>
+      <top style="thin">
+        <color rgb="0001579B"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="0001579B"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,6 +447,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -439,17 +470,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>5.1 ~ 6.15</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>나만의 엣지있는 블로그 사이트 만들기 (취미로 익히는 IT)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>초급</t>
         </is>

--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -70,11 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,62 +449,155 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="100" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>일정</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>커리큘럼 타이틀</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>난이도</t>
-        </is>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>5.1 ~ 6.15</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>나만의 엣지있는 블로그 사이트 만들기 (취미로 익히는 IT)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>초급</t>
+          <t>닥터 아파트 분양 기사 타이틀</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6.16 ~ 7.31</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>파이썬과 데이터과학 첫걸음 (IT 기본기 익히기)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>중급</t>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 文정부 남발한 민간사전청약…분양은 '하세월'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 내달 전국 3만6천여가구 분양…서울 정비사업 분양 줄잇는다</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 한강변서 공공분양 … 알짜 '뉴홈' 쏟아진다</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “아파트값 더 비싸지겠네”…치솟는 공사비, 분양가도 연평균 ..</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3년전 분양가로 차익 기대…과천 '줍줍' 6가구에 1만4천명 몰려</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> “미분양에 장사 없어”…10대 건설사 분양물량 70% 기약없이 ..</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3년전 분양가 그대로 과천 잇단 '줍줍' 공급</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 지방인데 1순위 마감…분양가 저렴한것보다 더 큰 이유는</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 서울 청약 가점 1년來 최저 '뚝'</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 청약 돌풍 아파트에 이런 일이…‘최대 198대 1’ 비결 있었다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4월 전국 청약경쟁률 5.6대 1…서울 소형단지는 성적 저조</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 급증한 공공분양 미분양 '무주택 조건' 풀어도 미달</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 규제 풀리자 분양가 '껑충'…소형아파트 3.3㎡당 2천만원 돌파</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 역대 사전청약 최고 인기 '대방 신희타' 본청약 연기</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 청약시장서 재개발·재건축 인기…일반아파트 경쟁률 상회</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,26 +25,16 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0001579B"/>
-      <sz val="14"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDE7"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -52,30 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="0001579B"/>
-      </left>
-      <right style="thin">
-        <color rgb="0001579B"/>
-      </right>
-      <top style="thin">
-        <color rgb="0001579B"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="0001579B"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -441,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,155 +421,1293 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>닥터 아파트 분양 기사 타이틀</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>여름이불</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.35881</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.49611</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.31447</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.94152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 文정부 남발한 민간사전청약…분양은 '하세월'</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>여름이불 추천</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01548</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02977</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.37513</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 내달 전국 3만6천여가구 분양…서울 정비사업 분양 줄잇는다</t>
-        </is>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>여름이불 종류</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00476</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 한강변서 공공분양 … 알짜 '뉴홈' 쏟아진다</t>
-        </is>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>여름이불 소재</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00059</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01667</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> “아파트값 더 비싸지겠네”…치솟는 공사비, 분양가도 연평균 ..</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3년전 분양가로 차익 기대…과천 '줍줍' 6가구에 1만4천명 몰려</t>
-        </is>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>여름이불세트</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.22662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.91446</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.30053</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54.04576</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> “미분양에 장사 없어”…10대 건설사 분양물량 70% 기약없이 ..</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3년전 분양가 그대로 과천 잇단 '줍줍' 공급</t>
-        </is>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>행거</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>28.78304</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.61455</v>
+      </c>
+      <c r="D9" t="n">
+        <v>54.25316</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96.78504</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 지방인데 1순위 마감…분양가 저렴한것보다 더 큰 이유는</t>
-        </is>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>행거 추천</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.11442</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.12056</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08987000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08619</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 서울 청약 가점 1년來 최저 '뚝'</t>
-        </is>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>행거도어</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.16096</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.14942</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.21056</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.18171</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 청약 돌풍 아파트에 이런 일이…‘최대 198대 1’ 비결 있었다</t>
-        </is>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>행거치프</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00012</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4월 전국 청약경쟁률 5.6대 1…서울 소형단지는 성적 저조</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 급증한 공공분양 미분양 '무주택 조건' 풀어도 미달</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>행거 버리는 법</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 규제 풀리자 분양가 '껑충'…소형아파트 3.3㎡당 2천만원 돌파</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 역대 사전청약 최고 인기 '대방 신희타' 본청약 연기</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>쇼파</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>72.14312</v>
+      </c>
+      <c r="C16" t="n">
+        <v>83.02575</v>
+      </c>
+      <c r="D16" t="n">
+        <v>94.27394</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>93.75503</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 청약시장서 재개발·재건축 인기…일반아파트 경쟁률 상회</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>쇼파드</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>쇼파드 아이스큐브</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>쇼파커버</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14.16577</v>
+      </c>
+      <c r="C19" t="n">
+        <v>20.81356</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.68407</v>
+      </c>
+      <c r="E19" t="n">
+        <v>24.41571</v>
+      </c>
+      <c r="F19" t="n">
+        <v>22.31177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>쇼파르엔터테인먼트</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>침대프레임</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>69.98276</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80.26519</v>
+      </c>
+      <c r="D23" t="n">
+        <v>84.26474</v>
+      </c>
+      <c r="E23" t="n">
+        <v>97.18685000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>침대프레임 추천</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.23516</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.20681</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.21348</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.21737</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.21737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>침대프레임 버리기</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>침대프레임 추천 디시</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>침대프레임 중고</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01723</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.02612</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02279</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.02724</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>화장대</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>78.83893999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>89.23560000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>94.24948999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>87.31036</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>화장대 영어로</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>화장대 추천</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.12957</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.16196</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.43511</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.18575</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.03356</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>화장대 거울</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>6.29451</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.93225</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.95348</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8.18995</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.18221</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>화장대의자</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17.38823</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20.98993</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.39045</v>
+      </c>
+      <c r="E34" t="n">
+        <v>23.95819</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20.63223</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>침대</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>78.81081</v>
+      </c>
+      <c r="C37" t="n">
+        <v>91.93884</v>
+      </c>
+      <c r="D37" t="n">
+        <v>77.6028</v>
+      </c>
+      <c r="E37" t="n">
+        <v>84.19978999999999</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>침대 사이즈</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.02172</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01867</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03049</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02477</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02744</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>침대 프레임</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>47.98423</v>
+      </c>
+      <c r="C39" t="n">
+        <v>55.03446</v>
+      </c>
+      <c r="D39" t="n">
+        <v>57.77678</v>
+      </c>
+      <c r="E39" t="n">
+        <v>66.63693000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>68.56578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>침대 매트리스</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11.85444</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.57452</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.71532</v>
+      </c>
+      <c r="E40" t="n">
+        <v>17.52702</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19.24393</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>침대 추천</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.83596</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.82033</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.80699</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.68996</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.1352</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>식탁의자</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>69.05985</v>
+      </c>
+      <c r="C44" t="n">
+        <v>76.20424</v>
+      </c>
+      <c r="D44" t="n">
+        <v>96.96187</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>93.4629</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>식탁의자 추천</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.67017</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.74587</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.96554</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.80876</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.80545</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>식탁의자커버</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6.02867</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.10302</v>
+      </c>
+      <c r="D46" t="n">
+        <v>12.12726</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10.20982</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10.15852</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>식탁의자 리폼</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.26641</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.41327</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5713</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.56882</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.42196</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>식탁의자가격</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.01241</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03847</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.02358</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02109</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.01696</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>암막커튼</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>52.89747</v>
+      </c>
+      <c r="C51" t="n">
+        <v>66.04109</v>
+      </c>
+      <c r="D51" t="n">
+        <v>89.96046</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>87.40658000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>암막커튼 단점</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>암막커튼 추천</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.25728</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.29125</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.48282</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.45107</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.33134</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>암막커튼 가격</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.03953</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.05958</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.07796</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.07016</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.05457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>암막커튼 설치</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.16985</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.16929</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.18544</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.11917</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1058</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>식탁</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>60.11881</v>
+      </c>
+      <c r="C58" t="n">
+        <v>66.83172</v>
+      </c>
+      <c r="D58" t="n">
+        <v>76.95178</v>
+      </c>
+      <c r="E58" t="n">
+        <v>81.46635000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>77.18841</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>식탁의자</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>69.05985</v>
+      </c>
+      <c r="C59" t="n">
+        <v>76.20424</v>
+      </c>
+      <c r="D59" t="n">
+        <v>96.96187</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>93.4629</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>식탁보</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>8.873189999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10.41997</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15.73214</v>
+      </c>
+      <c r="E60" t="n">
+        <v>17.67234</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14.54486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>식탁등</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>10.04351</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.26916</v>
+      </c>
+      <c r="D61" t="n">
+        <v>15.22661</v>
+      </c>
+      <c r="E61" t="n">
+        <v>22.66307</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.05849</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>식탁세트</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>8.611739999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.959239999999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10.02862</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9.41099</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.3146</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>검색어</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-01-01</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2020-02-01</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>매트리스</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>38.66478</v>
+      </c>
+      <c r="C65" t="n">
+        <v>51.04379</v>
+      </c>
+      <c r="D65" t="n">
+        <v>65.3472</v>
+      </c>
+      <c r="E65" t="n">
+        <v>73.95092</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>매트리스 추천</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.74255</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.91306</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.06612</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.88586</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.00644</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>매트리스 버리기</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>매트리스 사이즈</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.01136</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.00974</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01258</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01014</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>매트리스 커버</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>13.42524</v>
+      </c>
+      <c r="C69" t="n">
+        <v>17.25738</v>
+      </c>
+      <c r="D69" t="n">
+        <v>21.83206</v>
+      </c>
+      <c r="E69" t="n">
+        <v>25.30286</v>
+      </c>
+      <c r="F69" t="n">
+        <v>26.35113</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B5" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId15"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>